--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_game_world_info[游戏世界信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_game_world_info[游戏世界信息].xlsx
@@ -1120,7 +1120,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_game_world_info[游戏世界信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_game_world_info[游戏世界信息].xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="GameWorldInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -35,39 +35,6 @@
     <t>icon_res</t>
   </si>
   <si>
-    <t>difficulty_0</t>
-  </si>
-  <si>
-    <t>difficulty_1</t>
-  </si>
-  <si>
-    <t>difficulty_2</t>
-  </si>
-  <si>
-    <t>difficulty_3</t>
-  </si>
-  <si>
-    <t>difficulty_4</t>
-  </si>
-  <si>
-    <t>difficulty_5</t>
-  </si>
-  <si>
-    <t>difficulty_6</t>
-  </si>
-  <si>
-    <t>difficulty_7</t>
-  </si>
-  <si>
-    <t>difficulty_8</t>
-  </si>
-  <si>
-    <t>difficulty_9</t>
-  </si>
-  <si>
-    <t>difficulty_10</t>
-  </si>
-  <si>
     <t>map_pos</t>
   </si>
   <si>
@@ -92,12 +59,6 @@
     <t>图标资源</t>
   </si>
   <si>
-    <t>难度数据-无尽模式</t>
-  </si>
-  <si>
-    <t>难度数据</t>
-  </si>
-  <si>
     <t>地图坐标</t>
   </si>
   <si>
@@ -110,39 +71,6 @@
     <t>名字-英文</t>
   </si>
   <si>
-    <t>maxLevel:-1|</t>
-  </si>
-  <si>
-    <t>maxLevel:3-4|</t>
-  </si>
-  <si>
-    <t>maxLevel:4-5|</t>
-  </si>
-  <si>
-    <t>maxLevel:5-6|</t>
-  </si>
-  <si>
-    <t>maxLevel:6-8|</t>
-  </si>
-  <si>
-    <t>maxLevel:7-9|</t>
-  </si>
-  <si>
-    <t>maxLevel:8-10|</t>
-  </si>
-  <si>
-    <t>maxLevel:11-13|</t>
-  </si>
-  <si>
-    <t>maxLevel:14-16|</t>
-  </si>
-  <si>
-    <t>maxLevel:17-19|</t>
-  </si>
-  <si>
-    <t>maxLevel:20|</t>
-  </si>
-  <si>
     <t>0,0</t>
   </si>
   <si>
@@ -150,6 +78,9 @@
   </si>
   <si>
     <t>Sword and Magic</t>
+  </si>
+  <si>
+    <t>虚空魔界</t>
   </si>
 </sst>
 </file>
@@ -828,6 +759,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1117,26 +1055,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="47.5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="11" width="18.75" customWidth="1"/>
-    <col min="12" max="12" width="21.375" customWidth="1"/>
-    <col min="13" max="13" width="22.5" customWidth="1"/>
-    <col min="14" max="14" width="47.5" customWidth="1"/>
-    <col min="15" max="15" width="42.875" customWidth="1"/>
-    <col min="16" max="16" width="25.125" customWidth="1"/>
-    <col min="17" max="17" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
+    <col min="6" max="6" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1155,191 +1089,70 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="12" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_game_world_info[游戏世界信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_game_world_info[游戏世界信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="26475" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="GameWorldInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>虚空魔界</t>
+  </si>
+  <si>
+    <t>刀与剑</t>
+  </si>
+  <si>
+    <t>魔法世界</t>
   </si>
 </sst>
 </file>
@@ -759,13 +765,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1058,7 +1057,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1153,6 +1152,28 @@
       </c>
       <c r="E5" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="12" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_game_world_info[游戏世界信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_game_world_info[游戏世界信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26475" windowHeight="12150"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="GameWorldInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -38,15 +38,12 @@
     <t>map_pos</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
-    <t>name_cn</t>
-  </si>
-  <si>
-    <t>name_en</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
@@ -62,22 +59,16 @@
     <t>地图坐标</t>
   </si>
   <si>
+    <t>名字</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
-    <t>名字-中文</t>
-  </si>
-  <si>
-    <t>名字-英文</t>
-  </si>
-  <si>
     <t>0,0</t>
   </si>
   <si>
     <t>剑与魔法</t>
-  </si>
-  <si>
-    <t>Sword and Magic</t>
   </si>
   <si>
     <t>虚空魔界</t>
@@ -1054,22 +1045,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="9.375" customWidth="1"/>
     <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="7.375" customWidth="1"/>
-    <col min="5" max="5" width="25.125" customWidth="1"/>
-    <col min="6" max="6" width="24.75" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1085,62 +1074,53 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>40000000001</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1148,10 +1128,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>40000000002</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1159,10 +1142,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>40000000003</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1170,10 +1156,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>40000000004</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="12" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_game_world_info[游戏世界信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_game_world_info[游戏世界信息].xlsx
@@ -38,7 +38,7 @@
     <t>map_pos</t>
   </si>
   <si>
-    <t>name</t>
+    <t>name[language]</t>
   </si>
   <si>
     <t>remark</t>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_game_world_info[游戏世界信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_game_world_info[游戏世界信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="GameWorldInfo" sheetId="1" r:id="rId1"/>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1117,7 +1117,7 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>40000000001</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1131,7 +1131,7 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>40000000002</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -1145,7 +1145,7 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>40000000003</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -1159,7 +1159,7 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>40000000004</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_game_world_info[游戏世界信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_game_world_info[游戏世界信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="GameWorldInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -35,6 +35,15 @@
     <t>icon_res</t>
   </si>
   <si>
+    <t>unlock_id</t>
+  </si>
+  <si>
+    <t>unlock_id_infinite</t>
+  </si>
+  <si>
+    <t>unlock_id_conquer_difficulty_level</t>
+  </si>
+  <si>
     <t>map_pos</t>
   </si>
   <si>
@@ -54,6 +63,15 @@
   </si>
   <si>
     <t>图标资源</t>
+  </si>
+  <si>
+    <t>解锁ID</t>
+  </si>
+  <si>
+    <t>解锁ID-无尽模式</t>
+  </si>
+  <si>
+    <t>解锁ID-征服模式-难度起始ID</t>
   </si>
   <si>
     <t>地图坐标</t>
@@ -1045,20 +1063,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
+    <col min="5" max="5" width="62.375" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1074,95 +1096,158 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
+      <c r="C4">
+        <v>100310101</v>
       </c>
       <c r="D4">
+        <v>100310102</v>
+      </c>
+      <c r="E4">
+        <v>100310112</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
+      <c r="H4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
+      <c r="C5">
+        <v>100310201</v>
       </c>
       <c r="D5">
+        <v>100310202</v>
+      </c>
+      <c r="E5">
+        <v>100310212</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
+      <c r="H5" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
+      <c r="C6">
+        <v>100310301</v>
       </c>
       <c r="D6">
+        <v>100310302</v>
+      </c>
+      <c r="E6">
+        <v>100310312</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
-        <v>15</v>
+      <c r="H6" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
+      <c r="C7">
+        <v>100310401</v>
       </c>
       <c r="D7">
+        <v>100310402</v>
+      </c>
+      <c r="E7">
+        <v>100310412</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
+      <c r="H7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="12" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_game_world_info[游戏世界信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_game_world_info[游戏世界信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11805"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="GameWorldInfo" sheetId="1" r:id="rId1"/>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
